--- a/device.xlsx
+++ b/device.xlsx
@@ -191,22 +191,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>868482050093609</t>
+          <t>862592051651472</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>868482050093609</t>
+          <t>862592051651472</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hw</t>
+          <t>ss</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>智慧窖井</t>
+          <t>窖井锁</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -216,7 +216,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CA:FF:11:42:34:8F</t>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -241,12 +241,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>离线</t>
+          <t>在线</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>已撤防</t>
+          <t>已布防</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -261,32 +261,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>上锁</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>关</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>开</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2022-04-19 15:09:05</t>
+          <t>2022-04-24 09:41:08</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>89861119212002368759</t>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>460113036642813</t>
+          <t>460113036642806</t>
         </is>
       </c>
     </row>
@@ -395,32 +395,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>862592051650946</t>
+          <t>316571272587902</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>862592051650946</t>
+          <t>316571272587902</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>48v2</t>
+          <t>cs26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>智慧窖井</t>
+          <t>NB窖井终端</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>开盖检测</t>
+          <t>开盖检测+气体检测+水位检测</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EB:36:3D:DF:71:8F</t>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -435,12 +435,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>500*500</t>
+          <t>Φ600</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t xml:space="preserve"> 塑胶</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -460,7 +460,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>未完成</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -480,49 +480,49 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2022-04-11 18:39:47</t>
+          <t>2022-03-29 08:35:40</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>89860490102070508342</t>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>460081087908342</t>
+          <t>460113036642806</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>862592051649799</t>
+          <t>729154803429304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>862592051649799</t>
+          <t>729154803429304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>48v1</t>
+          <t>cs23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>智慧窖井</t>
+          <t>NB窖井警铃</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>开盖检测</t>
+          <t>开盖检测+气体检测+水位检测</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>F8:8A:19:B7:0F:B3</t>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>500*500</t>
+          <t>600*600</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t xml:space="preserve"> 塑胶</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>未完成</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -582,49 +582,49 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2022-04-11 18:39:14</t>
+          <t>2022-03-28 06:56:04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>89860490102070508334</t>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>460081087908334</t>
+          <t>460113036642806</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>862592051533795</t>
+          <t>906084705709062</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>862592051533795</t>
+          <t>906084705709062</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jl</t>
+          <t>cs58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>智慧警铃</t>
+          <t>NB窖井终端</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>开盖检测</t>
+          <t>开盖检测+气体检测+水位检测</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>D5:03:42:C6:9E:70</t>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>700*700</t>
+          <t>600*600</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>离线</t>
+          <t>在线</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>未完成</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -684,54 +684,54 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2022-03-28 15:47:22</t>
+          <t>2022-03-27 15:57:41</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>89860490102070508360</t>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>460081087908360</t>
+          <t>460113036642806</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>862592051533308</t>
+          <t>899494636938670</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>862592051533308</t>
+          <t>899494636938670</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cs</t>
+          <t>cs47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>智慧窖井</t>
+          <t>NB窖井终端</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>开盖检测+水位检测</t>
+          <t>开盖检测+气体检测+水位检测</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C4:B4:76:55:AA:45</t>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>广东省深圳市南山区南山区高新中二道29号靠近深圳软件园2期</t>
+          <t>广东省深圳市南山区南山区科技中二路29号靠近深圳软件园2期</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>600*600</t>
+          <t>450*750</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>未完成</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -786,34 +786,34 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2022-03-25 18:11:04</t>
+          <t>2022-03-27 11:52:34</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>89860490102070508353</t>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>460081087908353</t>
+          <t>460113036642806</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>862592051650938</t>
+          <t>544604832792845</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>862592051650938</t>
+          <t>544604832792845</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ss</t>
+          <t>cs21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>水位检测</t>
+          <t>开盖检测+气体检测+水位检测</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EB:5E:24:41:79:57</t>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>500*500</t>
+          <t>600*600</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t xml:space="preserve"> 塑胶</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>未完成</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -878,27 +878,27 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>关</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>开</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>开</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2022-03-24 15:07:45</t>
+          <t>2022-03-26 14:07:21</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>89860490102070508397</t>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>460081087908397</t>
+          <t>460113036642806</t>
         </is>
       </c>
     </row>

--- a/device.xlsx
+++ b/device.xlsx
@@ -64,24 +64,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="true"/>
-    <col min="2" max="2" width="9.25" customWidth="true"/>
-    <col min="3" max="3" width="9.25" customWidth="true"/>
-    <col min="4" max="4" width="9.25" customWidth="true"/>
-    <col min="5" max="5" width="9.25" customWidth="true"/>
-    <col min="6" max="6" width="12.5078125" customWidth="true"/>
-    <col min="7" max="7" width="5.51171875" customWidth="true"/>
-    <col min="8" max="8" width="5.51171875" customWidth="true"/>
-    <col min="9" max="9" width="9.25" customWidth="true"/>
-    <col min="10" max="10" width="9.25" customWidth="true"/>
-    <col min="11" max="11" width="8.43359375" customWidth="true"/>
-    <col min="12" max="12" width="9.25" customWidth="true"/>
-    <col min="13" max="13" width="9.25" customWidth="true"/>
-    <col min="14" max="14" width="9.25" customWidth="true"/>
-    <col min="15" max="15" width="7.3828125" customWidth="true"/>
-    <col min="16" max="16" width="9.25" customWidth="true"/>
-    <col min="17" max="17" width="9.25" customWidth="true"/>
-    <col min="18" max="18" width="9.25" customWidth="true"/>
+    <col min="1" max="1" width="12.98828125" customWidth="true"/>
+    <col min="2" max="2" width="11.74609375" customWidth="true"/>
+    <col min="3" max="3" width="11.74609375" customWidth="true"/>
+    <col min="4" max="4" width="10.49609375" customWidth="true"/>
+    <col min="5" max="5" width="11.74609375" customWidth="true"/>
+    <col min="6" max="6" width="13.7578125" customWidth="true"/>
+    <col min="7" max="7" width="8.0078125" customWidth="true"/>
+    <col min="8" max="8" width="6.7578125" customWidth="true"/>
+    <col min="9" max="9" width="12.98828125" customWidth="true"/>
+    <col min="10" max="10" width="12.98828125" customWidth="true"/>
+    <col min="11" max="11" width="10.921875" customWidth="true"/>
+    <col min="12" max="12" width="12.98828125" customWidth="true"/>
+    <col min="13" max="13" width="12.98828125" customWidth="true"/>
+    <col min="14" max="14" width="12.98828125" customWidth="true"/>
+    <col min="15" max="15" width="8.625" customWidth="true"/>
+    <col min="16" max="16" width="12.98828125" customWidth="true"/>
+    <col min="17" max="17" width="12.98828125" customWidth="true"/>
+    <col min="18" max="18" width="10.49609375" customWidth="true"/>
     <col min="19" max="19" width="10.359375" customWidth="true"/>
     <col min="20" max="20" width="8.27734375" customWidth="true"/>
   </cols>
@@ -188,108 +188,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>567891234</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>678912345</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>hy</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NB智慧窖井锁</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>气体检测+水位检测</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>C3:B2:5D:7E:AE:7B</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>广东省深圳市南山区南山区科技中二路29号靠近深圳软件园2期</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>测试部</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>500*500</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>水泥</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>已布防</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>已完成</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>上锁</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>关</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>开</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2022-04-12 14:10:04</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>89861119212002368684</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>460113036642806</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/device.xlsx
+++ b/device.xlsx
@@ -64,24 +64,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.98828125" customWidth="true"/>
-    <col min="2" max="2" width="11.74609375" customWidth="true"/>
-    <col min="3" max="3" width="11.74609375" customWidth="true"/>
-    <col min="4" max="4" width="10.49609375" customWidth="true"/>
-    <col min="5" max="5" width="11.74609375" customWidth="true"/>
-    <col min="6" max="6" width="13.7578125" customWidth="true"/>
-    <col min="7" max="7" width="8.0078125" customWidth="true"/>
-    <col min="8" max="8" width="6.7578125" customWidth="true"/>
-    <col min="9" max="9" width="12.98828125" customWidth="true"/>
-    <col min="10" max="10" width="12.98828125" customWidth="true"/>
-    <col min="11" max="11" width="10.921875" customWidth="true"/>
-    <col min="12" max="12" width="12.98828125" customWidth="true"/>
-    <col min="13" max="13" width="12.98828125" customWidth="true"/>
-    <col min="14" max="14" width="12.98828125" customWidth="true"/>
-    <col min="15" max="15" width="8.625" customWidth="true"/>
-    <col min="16" max="16" width="12.98828125" customWidth="true"/>
-    <col min="17" max="17" width="12.98828125" customWidth="true"/>
-    <col min="18" max="18" width="10.49609375" customWidth="true"/>
+    <col min="1" max="1" width="9.25" customWidth="true"/>
+    <col min="2" max="2" width="9.25" customWidth="true"/>
+    <col min="3" max="3" width="9.25" customWidth="true"/>
+    <col min="4" max="4" width="9.25" customWidth="true"/>
+    <col min="5" max="5" width="9.25" customWidth="true"/>
+    <col min="6" max="6" width="12.5078125" customWidth="true"/>
+    <col min="7" max="7" width="5.51171875" customWidth="true"/>
+    <col min="8" max="8" width="5.51171875" customWidth="true"/>
+    <col min="9" max="9" width="9.25" customWidth="true"/>
+    <col min="10" max="10" width="9.25" customWidth="true"/>
+    <col min="11" max="11" width="8.43359375" customWidth="true"/>
+    <col min="12" max="12" width="9.25" customWidth="true"/>
+    <col min="13" max="13" width="9.25" customWidth="true"/>
+    <col min="14" max="14" width="9.25" customWidth="true"/>
+    <col min="15" max="15" width="7.3828125" customWidth="true"/>
+    <col min="16" max="16" width="9.25" customWidth="true"/>
+    <col min="17" max="17" width="9.25" customWidth="true"/>
+    <col min="18" max="18" width="9.25" customWidth="true"/>
     <col min="19" max="19" width="10.359375" customWidth="true"/>
     <col min="20" max="20" width="8.27734375" customWidth="true"/>
   </cols>
@@ -188,6 +188,210 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>862592051650938</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>862592051650938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NB智慧窖井锁</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>水位检测</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EB:5E:24:41:79:57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>广东省深圳市南山区南山区科技中二路29号靠近深圳软件园2期</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>测试部</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>500*500</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>水泥</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>已撤防</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>未完成</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>上锁</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>开</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>关</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2022-05-05 16:56:22</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>89860490102070508397</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>460081087908397</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>567891234</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>678912345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NB智慧窖井锁</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>气体检测+水位检测</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C3:B2:5D:7E:AE:7B</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>广东省深圳市南山区南山区科技中二路29号靠近深圳软件园2期</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>测试部</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>500*500</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>水泥</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>已布防</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>上锁</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>关</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>开</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2022-04-12 14:10:04</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>89861119212002368684</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>460113036642806</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/device.xlsx
+++ b/device.xlsx
@@ -191,17 +191,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>862592051650938</t>
+          <t>567891234</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>862592051650938</t>
+          <t>678912345</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cs</t>
+          <t>hy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -211,12 +211,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>水位检测</t>
+          <t>气体检测+水位检测</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EB:5E:24:41:79:57</t>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -246,7 +246,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>已撤防</t>
+          <t>已布防</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -256,7 +256,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>未完成</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -266,127 +266,25 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>关</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>开</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>关</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2022-05-05 16:56:22</t>
+          <t>2022-04-12 14:10:04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>89860490102070508397</t>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
-        <is>
-          <t>460081087908397</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>567891234</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>678912345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>hy</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NB智慧窖井锁</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>气体检测+水位检测</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C3:B2:5D:7E:AE:7B</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>广东省深圳市南山区南山区科技中二路29号靠近深圳软件园2期</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>测试部</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>500*500</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>水泥</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>已布防</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>已完成</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>上锁</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>关</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>开</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2022-04-12 14:10:04</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>89861119212002368684</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
         <is>
           <t>460113036642806</t>
         </is>

--- a/device.xlsx
+++ b/device.xlsx
@@ -206,7 +206,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>窖井锁</t>
+          <t>NB智慧窖井锁</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
